--- a/safety-exam-ai/data/industrial.xlsx
+++ b/safety-exam-ai/data/industrial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj\Desktop\앱개발\자격증공부앱\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj\Desktop\앱개발\자격증공부앱\github_setup\safety-exam-ai\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCCF652C-994E-452D-B629-4A0E5C0DB5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1594BFC4-B7E3-4B92-A6AF-1B2E985CEB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EE38B42-8A09-4E13-9D85-6092757F3117}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5406" uniqueCount="1819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="1820">
   <si>
     <t>산업 1과목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4588,9 +4588,6 @@
     <t xml:space="preserve">  id: "IND-5-0099",</t>
   </si>
   <si>
-    <t xml:space="preserve">  text: "폭발 위험 공간에서 사용하는 전동공구는?",</t>
-  </si>
-  <si>
     <t xml:space="preserve">    options: ["일반형", "방폭형", "고무형", "색선"],</t>
   </si>
   <si>
@@ -5499,6 +5496,14 @@
   </si>
   <si>
     <t xml:space="preserve">    options: ["생산", "안전수칙·위험제거", "색", "조명"],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  text: "폭발 위험 공간에서 사용하는 전동공구는?",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5882,10 +5887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9575299B-0AB8-4BCD-812D-37C8885739D6}">
-  <dimension ref="A1:A6005"/>
+  <dimension ref="A1:A6007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4993" workbookViewId="0">
-      <selection activeCell="A5007" sqref="A5007:A6005"/>
+    <sheetView tabSelected="1" topLeftCell="A5979" workbookViewId="0">
+      <selection activeCell="A6008" sqref="A6008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28397,12 +28402,12 @@
     </row>
     <row r="5001" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5001" t="s">
-        <v>1515</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="5002" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5002" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="5003" spans="1:1" x14ac:dyDescent="0.3">
@@ -28417,7 +28422,7 @@
     </row>
     <row r="5006" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5006" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="5007" spans="1:1" x14ac:dyDescent="0.3">
@@ -28427,7 +28432,7 @@
     </row>
     <row r="5008" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5008" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="5009" spans="1:1" x14ac:dyDescent="0.3">
@@ -28437,7 +28442,7 @@
     </row>
     <row r="5010" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5010" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5011" spans="1:1" x14ac:dyDescent="0.3">
@@ -28447,12 +28452,12 @@
     </row>
     <row r="5012" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5012" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="5013" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5013" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="5014" spans="1:1" x14ac:dyDescent="0.3">
@@ -28472,7 +28477,7 @@
     </row>
     <row r="5018" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5018" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="5019" spans="1:1" x14ac:dyDescent="0.3">
@@ -28482,7 +28487,7 @@
     </row>
     <row r="5020" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5020" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5021" spans="1:1" x14ac:dyDescent="0.3">
@@ -28492,12 +28497,12 @@
     </row>
     <row r="5022" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5022" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="5023" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5023" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="5024" spans="1:1" x14ac:dyDescent="0.3">
@@ -28517,7 +28522,7 @@
     </row>
     <row r="5028" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5028" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="5029" spans="1:1" x14ac:dyDescent="0.3">
@@ -28527,7 +28532,7 @@
     </row>
     <row r="5030" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5030" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5031" spans="1:1" x14ac:dyDescent="0.3">
@@ -28537,12 +28542,12 @@
     </row>
     <row r="5032" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5032" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="5033" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5033" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="5034" spans="1:1" x14ac:dyDescent="0.3">
@@ -28562,7 +28567,7 @@
     </row>
     <row r="5038" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5038" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="5039" spans="1:1" x14ac:dyDescent="0.3">
@@ -28572,7 +28577,7 @@
     </row>
     <row r="5040" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5040" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5041" spans="1:1" x14ac:dyDescent="0.3">
@@ -28582,12 +28587,12 @@
     </row>
     <row r="5042" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5042" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="5043" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5043" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="5044" spans="1:1" x14ac:dyDescent="0.3">
@@ -28607,7 +28612,7 @@
     </row>
     <row r="5048" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5048" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="5049" spans="1:1" x14ac:dyDescent="0.3">
@@ -28617,7 +28622,7 @@
     </row>
     <row r="5050" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5050" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5051" spans="1:1" x14ac:dyDescent="0.3">
@@ -28627,12 +28632,12 @@
     </row>
     <row r="5052" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5052" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="5053" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5053" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="5054" spans="1:1" x14ac:dyDescent="0.3">
@@ -28652,7 +28657,7 @@
     </row>
     <row r="5058" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5058" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="5059" spans="1:1" x14ac:dyDescent="0.3">
@@ -28662,7 +28667,7 @@
     </row>
     <row r="5060" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5060" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5061" spans="1:1" x14ac:dyDescent="0.3">
@@ -28672,12 +28677,12 @@
     </row>
     <row r="5062" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5062" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="5063" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5063" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="5064" spans="1:1" x14ac:dyDescent="0.3">
@@ -28697,7 +28702,7 @@
     </row>
     <row r="5068" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5068" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="5069" spans="1:1" x14ac:dyDescent="0.3">
@@ -28707,7 +28712,7 @@
     </row>
     <row r="5070" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5070" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5071" spans="1:1" x14ac:dyDescent="0.3">
@@ -28717,12 +28722,12 @@
     </row>
     <row r="5072" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5072" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="5073" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5073" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="5074" spans="1:1" x14ac:dyDescent="0.3">
@@ -28742,7 +28747,7 @@
     </row>
     <row r="5078" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5078" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="5079" spans="1:1" x14ac:dyDescent="0.3">
@@ -28752,7 +28757,7 @@
     </row>
     <row r="5080" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5080" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5081" spans="1:1" x14ac:dyDescent="0.3">
@@ -28762,12 +28767,12 @@
     </row>
     <row r="5082" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5082" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="5083" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5083" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="5084" spans="1:1" x14ac:dyDescent="0.3">
@@ -28787,7 +28792,7 @@
     </row>
     <row r="5088" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5088" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="5089" spans="1:1" x14ac:dyDescent="0.3">
@@ -28797,7 +28802,7 @@
     </row>
     <row r="5090" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5090" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5091" spans="1:1" x14ac:dyDescent="0.3">
@@ -28807,12 +28812,12 @@
     </row>
     <row r="5092" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5092" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="5093" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5093" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="5094" spans="1:1" x14ac:dyDescent="0.3">
@@ -28832,7 +28837,7 @@
     </row>
     <row r="5098" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5098" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="5099" spans="1:1" x14ac:dyDescent="0.3">
@@ -28842,7 +28847,7 @@
     </row>
     <row r="5100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5100" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5101" spans="1:1" x14ac:dyDescent="0.3">
@@ -28852,12 +28857,12 @@
     </row>
     <row r="5102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5102" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="5103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5103" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="5104" spans="1:1" x14ac:dyDescent="0.3">
@@ -28877,7 +28882,7 @@
     </row>
     <row r="5108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5108" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="5109" spans="1:1" x14ac:dyDescent="0.3">
@@ -28887,7 +28892,7 @@
     </row>
     <row r="5110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5110" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5111" spans="1:1" x14ac:dyDescent="0.3">
@@ -28897,12 +28902,12 @@
     </row>
     <row r="5112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5112" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="5113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5113" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="5114" spans="1:1" x14ac:dyDescent="0.3">
@@ -28922,7 +28927,7 @@
     </row>
     <row r="5118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5118" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="5119" spans="1:1" x14ac:dyDescent="0.3">
@@ -28932,7 +28937,7 @@
     </row>
     <row r="5120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5120" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5121" spans="1:1" x14ac:dyDescent="0.3">
@@ -28942,12 +28947,12 @@
     </row>
     <row r="5122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5122" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="5123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5123" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="5124" spans="1:1" x14ac:dyDescent="0.3">
@@ -28967,7 +28972,7 @@
     </row>
     <row r="5128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5128" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="5129" spans="1:1" x14ac:dyDescent="0.3">
@@ -28977,7 +28982,7 @@
     </row>
     <row r="5130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5130" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5131" spans="1:1" x14ac:dyDescent="0.3">
@@ -28987,12 +28992,12 @@
     </row>
     <row r="5132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5132" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="5133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5133" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="5134" spans="1:1" x14ac:dyDescent="0.3">
@@ -29012,7 +29017,7 @@
     </row>
     <row r="5138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5138" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="5139" spans="1:1" x14ac:dyDescent="0.3">
@@ -29022,7 +29027,7 @@
     </row>
     <row r="5140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5140" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5141" spans="1:1" x14ac:dyDescent="0.3">
@@ -29032,12 +29037,12 @@
     </row>
     <row r="5142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5142" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="5143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5143" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="5144" spans="1:1" x14ac:dyDescent="0.3">
@@ -29057,7 +29062,7 @@
     </row>
     <row r="5148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5148" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="5149" spans="1:1" x14ac:dyDescent="0.3">
@@ -29067,7 +29072,7 @@
     </row>
     <row r="5150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5150" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5151" spans="1:1" x14ac:dyDescent="0.3">
@@ -29077,12 +29082,12 @@
     </row>
     <row r="5152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5152" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="5153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5153" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="5154" spans="1:1" x14ac:dyDescent="0.3">
@@ -29102,7 +29107,7 @@
     </row>
     <row r="5158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5158" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="5159" spans="1:1" x14ac:dyDescent="0.3">
@@ -29112,7 +29117,7 @@
     </row>
     <row r="5160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5160" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5161" spans="1:1" x14ac:dyDescent="0.3">
@@ -29122,12 +29127,12 @@
     </row>
     <row r="5162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5162" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="5163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5163" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="5164" spans="1:1" x14ac:dyDescent="0.3">
@@ -29147,7 +29152,7 @@
     </row>
     <row r="5168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5168" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="5169" spans="1:1" x14ac:dyDescent="0.3">
@@ -29157,7 +29162,7 @@
     </row>
     <row r="5170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5170" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5171" spans="1:1" x14ac:dyDescent="0.3">
@@ -29167,12 +29172,12 @@
     </row>
     <row r="5172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5172" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="5173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5173" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="5174" spans="1:1" x14ac:dyDescent="0.3">
@@ -29192,7 +29197,7 @@
     </row>
     <row r="5178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5178" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="5179" spans="1:1" x14ac:dyDescent="0.3">
@@ -29202,7 +29207,7 @@
     </row>
     <row r="5180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5180" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5181" spans="1:1" x14ac:dyDescent="0.3">
@@ -29212,12 +29217,12 @@
     </row>
     <row r="5182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5182" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="5183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5183" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="5184" spans="1:1" x14ac:dyDescent="0.3">
@@ -29237,7 +29242,7 @@
     </row>
     <row r="5188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5188" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="5189" spans="1:1" x14ac:dyDescent="0.3">
@@ -29247,7 +29252,7 @@
     </row>
     <row r="5190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5190" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5191" spans="1:1" x14ac:dyDescent="0.3">
@@ -29257,12 +29262,12 @@
     </row>
     <row r="5192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5192" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="5193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5193" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="5194" spans="1:1" x14ac:dyDescent="0.3">
@@ -29282,7 +29287,7 @@
     </row>
     <row r="5198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5198" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="5199" spans="1:1" x14ac:dyDescent="0.3">
@@ -29292,7 +29297,7 @@
     </row>
     <row r="5200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5200" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5201" spans="1:1" x14ac:dyDescent="0.3">
@@ -29302,12 +29307,12 @@
     </row>
     <row r="5202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5202" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="5203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5203" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="5204" spans="1:1" x14ac:dyDescent="0.3">
@@ -29327,7 +29332,7 @@
     </row>
     <row r="5208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5208" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="5209" spans="1:1" x14ac:dyDescent="0.3">
@@ -29337,7 +29342,7 @@
     </row>
     <row r="5210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5210" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5211" spans="1:1" x14ac:dyDescent="0.3">
@@ -29347,12 +29352,12 @@
     </row>
     <row r="5212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5212" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="5213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5213" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="5214" spans="1:1" x14ac:dyDescent="0.3">
@@ -29372,7 +29377,7 @@
     </row>
     <row r="5218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5218" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="5219" spans="1:1" x14ac:dyDescent="0.3">
@@ -29382,7 +29387,7 @@
     </row>
     <row r="5220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5220" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5221" spans="1:1" x14ac:dyDescent="0.3">
@@ -29392,12 +29397,12 @@
     </row>
     <row r="5222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5222" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="5223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5223" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="5224" spans="1:1" x14ac:dyDescent="0.3">
@@ -29417,7 +29422,7 @@
     </row>
     <row r="5228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5228" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="5229" spans="1:1" x14ac:dyDescent="0.3">
@@ -29427,7 +29432,7 @@
     </row>
     <row r="5230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5230" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5231" spans="1:1" x14ac:dyDescent="0.3">
@@ -29437,12 +29442,12 @@
     </row>
     <row r="5232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5232" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="5233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5233" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="5234" spans="1:1" x14ac:dyDescent="0.3">
@@ -29462,7 +29467,7 @@
     </row>
     <row r="5238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5238" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="5239" spans="1:1" x14ac:dyDescent="0.3">
@@ -29472,7 +29477,7 @@
     </row>
     <row r="5240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5240" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5241" spans="1:1" x14ac:dyDescent="0.3">
@@ -29482,12 +29487,12 @@
     </row>
     <row r="5242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5242" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="5243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5243" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="5244" spans="1:1" x14ac:dyDescent="0.3">
@@ -29507,7 +29512,7 @@
     </row>
     <row r="5248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5248" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="5249" spans="1:1" x14ac:dyDescent="0.3">
@@ -29517,7 +29522,7 @@
     </row>
     <row r="5250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5250" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5251" spans="1:1" x14ac:dyDescent="0.3">
@@ -29527,12 +29532,12 @@
     </row>
     <row r="5252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5252" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="5253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5253" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="5254" spans="1:1" x14ac:dyDescent="0.3">
@@ -29552,7 +29557,7 @@
     </row>
     <row r="5258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5258" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="5259" spans="1:1" x14ac:dyDescent="0.3">
@@ -29562,7 +29567,7 @@
     </row>
     <row r="5260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5260" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5261" spans="1:1" x14ac:dyDescent="0.3">
@@ -29572,12 +29577,12 @@
     </row>
     <row r="5262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5262" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="5263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5263" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="5264" spans="1:1" x14ac:dyDescent="0.3">
@@ -29597,7 +29602,7 @@
     </row>
     <row r="5268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5268" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="5269" spans="1:1" x14ac:dyDescent="0.3">
@@ -29607,7 +29612,7 @@
     </row>
     <row r="5270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5270" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5271" spans="1:1" x14ac:dyDescent="0.3">
@@ -29617,12 +29622,12 @@
     </row>
     <row r="5272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5272" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="5273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5273" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="5274" spans="1:1" x14ac:dyDescent="0.3">
@@ -29642,7 +29647,7 @@
     </row>
     <row r="5278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5278" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="5279" spans="1:1" x14ac:dyDescent="0.3">
@@ -29652,7 +29657,7 @@
     </row>
     <row r="5280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5280" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5281" spans="1:1" x14ac:dyDescent="0.3">
@@ -29662,12 +29667,12 @@
     </row>
     <row r="5282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5282" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="5283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5283" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="5284" spans="1:1" x14ac:dyDescent="0.3">
@@ -29687,7 +29692,7 @@
     </row>
     <row r="5288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5288" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="5289" spans="1:1" x14ac:dyDescent="0.3">
@@ -29697,7 +29702,7 @@
     </row>
     <row r="5290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5290" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5291" spans="1:1" x14ac:dyDescent="0.3">
@@ -29707,12 +29712,12 @@
     </row>
     <row r="5292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5292" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="5293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5293" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="5294" spans="1:1" x14ac:dyDescent="0.3">
@@ -29732,7 +29737,7 @@
     </row>
     <row r="5298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5298" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="5299" spans="1:1" x14ac:dyDescent="0.3">
@@ -29742,7 +29747,7 @@
     </row>
     <row r="5300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5300" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5301" spans="1:1" x14ac:dyDescent="0.3">
@@ -29752,12 +29757,12 @@
     </row>
     <row r="5302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5302" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="5303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5303" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="5304" spans="1:1" x14ac:dyDescent="0.3">
@@ -29777,7 +29782,7 @@
     </row>
     <row r="5308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5308" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="5309" spans="1:1" x14ac:dyDescent="0.3">
@@ -29787,7 +29792,7 @@
     </row>
     <row r="5310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5310" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5311" spans="1:1" x14ac:dyDescent="0.3">
@@ -29797,12 +29802,12 @@
     </row>
     <row r="5312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5312" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="5313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5313" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="5314" spans="1:1" x14ac:dyDescent="0.3">
@@ -29822,7 +29827,7 @@
     </row>
     <row r="5318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5318" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="5319" spans="1:1" x14ac:dyDescent="0.3">
@@ -29832,7 +29837,7 @@
     </row>
     <row r="5320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5320" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5321" spans="1:1" x14ac:dyDescent="0.3">
@@ -29842,12 +29847,12 @@
     </row>
     <row r="5322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5322" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="5323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5323" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="5324" spans="1:1" x14ac:dyDescent="0.3">
@@ -29867,7 +29872,7 @@
     </row>
     <row r="5328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5328" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="5329" spans="1:1" x14ac:dyDescent="0.3">
@@ -29877,7 +29882,7 @@
     </row>
     <row r="5330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5330" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5331" spans="1:1" x14ac:dyDescent="0.3">
@@ -29887,12 +29892,12 @@
     </row>
     <row r="5332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5332" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="5333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5333" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="5334" spans="1:1" x14ac:dyDescent="0.3">
@@ -29912,7 +29917,7 @@
     </row>
     <row r="5338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5338" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="5339" spans="1:1" x14ac:dyDescent="0.3">
@@ -29922,7 +29927,7 @@
     </row>
     <row r="5340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5340" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5341" spans="1:1" x14ac:dyDescent="0.3">
@@ -29932,12 +29937,12 @@
     </row>
     <row r="5342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5342" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="5343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5343" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="5344" spans="1:1" x14ac:dyDescent="0.3">
@@ -29957,7 +29962,7 @@
     </row>
     <row r="5348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5348" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="5349" spans="1:1" x14ac:dyDescent="0.3">
@@ -29967,7 +29972,7 @@
     </row>
     <row r="5350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5350" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5351" spans="1:1" x14ac:dyDescent="0.3">
@@ -29977,12 +29982,12 @@
     </row>
     <row r="5352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5352" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="5353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5353" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="5354" spans="1:1" x14ac:dyDescent="0.3">
@@ -30002,7 +30007,7 @@
     </row>
     <row r="5358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5358" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="5359" spans="1:1" x14ac:dyDescent="0.3">
@@ -30012,7 +30017,7 @@
     </row>
     <row r="5360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5360" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5361" spans="1:1" x14ac:dyDescent="0.3">
@@ -30022,12 +30027,12 @@
     </row>
     <row r="5362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5362" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="5363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5363" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="5364" spans="1:1" x14ac:dyDescent="0.3">
@@ -30047,7 +30052,7 @@
     </row>
     <row r="5368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5368" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="5369" spans="1:1" x14ac:dyDescent="0.3">
@@ -30057,7 +30062,7 @@
     </row>
     <row r="5370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5370" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5371" spans="1:1" x14ac:dyDescent="0.3">
@@ -30067,12 +30072,12 @@
     </row>
     <row r="5372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5372" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="5373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5373" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="5374" spans="1:1" x14ac:dyDescent="0.3">
@@ -30092,7 +30097,7 @@
     </row>
     <row r="5378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5378" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="5379" spans="1:1" x14ac:dyDescent="0.3">
@@ -30102,7 +30107,7 @@
     </row>
     <row r="5380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5380" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5381" spans="1:1" x14ac:dyDescent="0.3">
@@ -30112,12 +30117,12 @@
     </row>
     <row r="5382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5382" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="5383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5383" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="5384" spans="1:1" x14ac:dyDescent="0.3">
@@ -30137,7 +30142,7 @@
     </row>
     <row r="5388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5388" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="5389" spans="1:1" x14ac:dyDescent="0.3">
@@ -30147,7 +30152,7 @@
     </row>
     <row r="5390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5390" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5391" spans="1:1" x14ac:dyDescent="0.3">
@@ -30157,12 +30162,12 @@
     </row>
     <row r="5392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5392" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="5393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5393" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="5394" spans="1:1" x14ac:dyDescent="0.3">
@@ -30182,7 +30187,7 @@
     </row>
     <row r="5398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5398" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="5399" spans="1:1" x14ac:dyDescent="0.3">
@@ -30192,7 +30197,7 @@
     </row>
     <row r="5400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5400" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5401" spans="1:1" x14ac:dyDescent="0.3">
@@ -30202,12 +30207,12 @@
     </row>
     <row r="5402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5402" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="5403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5403" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="5404" spans="1:1" x14ac:dyDescent="0.3">
@@ -30227,7 +30232,7 @@
     </row>
     <row r="5408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5408" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="5409" spans="1:1" x14ac:dyDescent="0.3">
@@ -30237,7 +30242,7 @@
     </row>
     <row r="5410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5410" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5411" spans="1:1" x14ac:dyDescent="0.3">
@@ -30247,12 +30252,12 @@
     </row>
     <row r="5412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5412" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="5413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5413" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="5414" spans="1:1" x14ac:dyDescent="0.3">
@@ -30272,7 +30277,7 @@
     </row>
     <row r="5418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5418" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="5419" spans="1:1" x14ac:dyDescent="0.3">
@@ -30282,7 +30287,7 @@
     </row>
     <row r="5420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5420" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5421" spans="1:1" x14ac:dyDescent="0.3">
@@ -30292,12 +30297,12 @@
     </row>
     <row r="5422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5422" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="5423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5423" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="5424" spans="1:1" x14ac:dyDescent="0.3">
@@ -30317,7 +30322,7 @@
     </row>
     <row r="5428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5428" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="5429" spans="1:1" x14ac:dyDescent="0.3">
@@ -30327,7 +30332,7 @@
     </row>
     <row r="5430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5430" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5431" spans="1:1" x14ac:dyDescent="0.3">
@@ -30337,12 +30342,12 @@
     </row>
     <row r="5432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5432" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="5433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5433" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="5434" spans="1:1" x14ac:dyDescent="0.3">
@@ -30362,7 +30367,7 @@
     </row>
     <row r="5438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5438" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="5439" spans="1:1" x14ac:dyDescent="0.3">
@@ -30372,7 +30377,7 @@
     </row>
     <row r="5440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5440" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5441" spans="1:1" x14ac:dyDescent="0.3">
@@ -30382,12 +30387,12 @@
     </row>
     <row r="5442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5442" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="5443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5443" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="5444" spans="1:1" x14ac:dyDescent="0.3">
@@ -30407,7 +30412,7 @@
     </row>
     <row r="5448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5448" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="5449" spans="1:1" x14ac:dyDescent="0.3">
@@ -30417,7 +30422,7 @@
     </row>
     <row r="5450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5450" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5451" spans="1:1" x14ac:dyDescent="0.3">
@@ -30427,12 +30432,12 @@
     </row>
     <row r="5452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5452" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="5453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5453" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="5454" spans="1:1" x14ac:dyDescent="0.3">
@@ -30452,7 +30457,7 @@
     </row>
     <row r="5458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5458" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="5459" spans="1:1" x14ac:dyDescent="0.3">
@@ -30462,7 +30467,7 @@
     </row>
     <row r="5460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5460" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5461" spans="1:1" x14ac:dyDescent="0.3">
@@ -30472,12 +30477,12 @@
     </row>
     <row r="5462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5462" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="5463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5463" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="5464" spans="1:1" x14ac:dyDescent="0.3">
@@ -30497,7 +30502,7 @@
     </row>
     <row r="5468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5468" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="5469" spans="1:1" x14ac:dyDescent="0.3">
@@ -30507,7 +30512,7 @@
     </row>
     <row r="5470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5470" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5471" spans="1:1" x14ac:dyDescent="0.3">
@@ -30517,12 +30522,12 @@
     </row>
     <row r="5472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5472" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="5473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5473" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="5474" spans="1:1" x14ac:dyDescent="0.3">
@@ -30542,7 +30547,7 @@
     </row>
     <row r="5478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5478" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="5479" spans="1:1" x14ac:dyDescent="0.3">
@@ -30552,7 +30557,7 @@
     </row>
     <row r="5480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5480" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5481" spans="1:1" x14ac:dyDescent="0.3">
@@ -30562,12 +30567,12 @@
     </row>
     <row r="5482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5482" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="5483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5483" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="5484" spans="1:1" x14ac:dyDescent="0.3">
@@ -30587,7 +30592,7 @@
     </row>
     <row r="5488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5488" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="5489" spans="1:1" x14ac:dyDescent="0.3">
@@ -30597,7 +30602,7 @@
     </row>
     <row r="5490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5490" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5491" spans="1:1" x14ac:dyDescent="0.3">
@@ -30607,12 +30612,12 @@
     </row>
     <row r="5492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5492" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="5493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5493" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="5494" spans="1:1" x14ac:dyDescent="0.3">
@@ -30632,7 +30637,7 @@
     </row>
     <row r="5498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5498" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="5499" spans="1:1" x14ac:dyDescent="0.3">
@@ -30642,7 +30647,7 @@
     </row>
     <row r="5500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5500" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5501" spans="1:1" x14ac:dyDescent="0.3">
@@ -30652,12 +30657,12 @@
     </row>
     <row r="5502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5502" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="5503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5503" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="5504" spans="1:1" x14ac:dyDescent="0.3">
@@ -30677,7 +30682,7 @@
     </row>
     <row r="5508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5508" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="5509" spans="1:1" x14ac:dyDescent="0.3">
@@ -30687,7 +30692,7 @@
     </row>
     <row r="5510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5510" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5511" spans="1:1" x14ac:dyDescent="0.3">
@@ -30697,12 +30702,12 @@
     </row>
     <row r="5512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5512" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="5513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5513" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="5514" spans="1:1" x14ac:dyDescent="0.3">
@@ -30722,7 +30727,7 @@
     </row>
     <row r="5518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5518" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="5519" spans="1:1" x14ac:dyDescent="0.3">
@@ -30732,7 +30737,7 @@
     </row>
     <row r="5520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5520" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5521" spans="1:1" x14ac:dyDescent="0.3">
@@ -30742,12 +30747,12 @@
     </row>
     <row r="5522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5522" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="5523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5523" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="5524" spans="1:1" x14ac:dyDescent="0.3">
@@ -30767,7 +30772,7 @@
     </row>
     <row r="5528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5528" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="5529" spans="1:1" x14ac:dyDescent="0.3">
@@ -30777,7 +30782,7 @@
     </row>
     <row r="5530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5530" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5531" spans="1:1" x14ac:dyDescent="0.3">
@@ -30787,12 +30792,12 @@
     </row>
     <row r="5532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5532" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="5533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5533" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="5534" spans="1:1" x14ac:dyDescent="0.3">
@@ -30812,7 +30817,7 @@
     </row>
     <row r="5538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5538" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="5539" spans="1:1" x14ac:dyDescent="0.3">
@@ -30822,7 +30827,7 @@
     </row>
     <row r="5540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5540" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5541" spans="1:1" x14ac:dyDescent="0.3">
@@ -30832,12 +30837,12 @@
     </row>
     <row r="5542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5542" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="5543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5543" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="5544" spans="1:1" x14ac:dyDescent="0.3">
@@ -30857,7 +30862,7 @@
     </row>
     <row r="5548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5548" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="5549" spans="1:1" x14ac:dyDescent="0.3">
@@ -30867,7 +30872,7 @@
     </row>
     <row r="5550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5550" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5551" spans="1:1" x14ac:dyDescent="0.3">
@@ -30877,12 +30882,12 @@
     </row>
     <row r="5552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5552" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="5553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5553" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="5554" spans="1:1" x14ac:dyDescent="0.3">
@@ -30902,7 +30907,7 @@
     </row>
     <row r="5558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5558" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="5559" spans="1:1" x14ac:dyDescent="0.3">
@@ -30912,7 +30917,7 @@
     </row>
     <row r="5560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5560" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5561" spans="1:1" x14ac:dyDescent="0.3">
@@ -30922,12 +30927,12 @@
     </row>
     <row r="5562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5562" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="5563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5563" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="5564" spans="1:1" x14ac:dyDescent="0.3">
@@ -30947,7 +30952,7 @@
     </row>
     <row r="5568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5568" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="5569" spans="1:1" x14ac:dyDescent="0.3">
@@ -30957,7 +30962,7 @@
     </row>
     <row r="5570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5570" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5571" spans="1:1" x14ac:dyDescent="0.3">
@@ -30967,12 +30972,12 @@
     </row>
     <row r="5572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5572" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="5573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5573" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="5574" spans="1:1" x14ac:dyDescent="0.3">
@@ -30992,7 +30997,7 @@
     </row>
     <row r="5578" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5578" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="5579" spans="1:1" x14ac:dyDescent="0.3">
@@ -31002,7 +31007,7 @@
     </row>
     <row r="5580" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5580" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5581" spans="1:1" x14ac:dyDescent="0.3">
@@ -31012,12 +31017,12 @@
     </row>
     <row r="5582" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5582" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="5583" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5583" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="5584" spans="1:1" x14ac:dyDescent="0.3">
@@ -31037,7 +31042,7 @@
     </row>
     <row r="5588" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5588" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="5589" spans="1:1" x14ac:dyDescent="0.3">
@@ -31047,7 +31052,7 @@
     </row>
     <row r="5590" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5590" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5591" spans="1:1" x14ac:dyDescent="0.3">
@@ -31057,12 +31062,12 @@
     </row>
     <row r="5592" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5592" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="5593" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5593" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="5594" spans="1:1" x14ac:dyDescent="0.3">
@@ -31082,7 +31087,7 @@
     </row>
     <row r="5598" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5598" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="5599" spans="1:1" x14ac:dyDescent="0.3">
@@ -31092,7 +31097,7 @@
     </row>
     <row r="5600" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5600" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5601" spans="1:1" x14ac:dyDescent="0.3">
@@ -31102,12 +31107,12 @@
     </row>
     <row r="5602" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5602" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="5603" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5603" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="5604" spans="1:1" x14ac:dyDescent="0.3">
@@ -31127,7 +31132,7 @@
     </row>
     <row r="5608" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5608" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="5609" spans="1:1" x14ac:dyDescent="0.3">
@@ -31137,7 +31142,7 @@
     </row>
     <row r="5610" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5610" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5611" spans="1:1" x14ac:dyDescent="0.3">
@@ -31147,12 +31152,12 @@
     </row>
     <row r="5612" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5612" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="5613" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5613" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="5614" spans="1:1" x14ac:dyDescent="0.3">
@@ -31172,7 +31177,7 @@
     </row>
     <row r="5618" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5618" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="5619" spans="1:1" x14ac:dyDescent="0.3">
@@ -31182,7 +31187,7 @@
     </row>
     <row r="5620" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5620" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5621" spans="1:1" x14ac:dyDescent="0.3">
@@ -31192,12 +31197,12 @@
     </row>
     <row r="5622" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5622" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="5623" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5623" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="5624" spans="1:1" x14ac:dyDescent="0.3">
@@ -31217,7 +31222,7 @@
     </row>
     <row r="5628" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5628" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="5629" spans="1:1" x14ac:dyDescent="0.3">
@@ -31227,7 +31232,7 @@
     </row>
     <row r="5630" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5630" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5631" spans="1:1" x14ac:dyDescent="0.3">
@@ -31237,12 +31242,12 @@
     </row>
     <row r="5632" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5632" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="5633" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5633" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="5634" spans="1:1" x14ac:dyDescent="0.3">
@@ -31262,7 +31267,7 @@
     </row>
     <row r="5638" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5638" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="5639" spans="1:1" x14ac:dyDescent="0.3">
@@ -31272,7 +31277,7 @@
     </row>
     <row r="5640" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5640" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5641" spans="1:1" x14ac:dyDescent="0.3">
@@ -31282,12 +31287,12 @@
     </row>
     <row r="5642" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5642" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="5643" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5643" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="5644" spans="1:1" x14ac:dyDescent="0.3">
@@ -31307,7 +31312,7 @@
     </row>
     <row r="5648" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5648" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="5649" spans="1:1" x14ac:dyDescent="0.3">
@@ -31317,7 +31322,7 @@
     </row>
     <row r="5650" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5650" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5651" spans="1:1" x14ac:dyDescent="0.3">
@@ -31327,12 +31332,12 @@
     </row>
     <row r="5652" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5652" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="5653" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5653" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="5654" spans="1:1" x14ac:dyDescent="0.3">
@@ -31352,7 +31357,7 @@
     </row>
     <row r="5658" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5658" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="5659" spans="1:1" x14ac:dyDescent="0.3">
@@ -31362,7 +31367,7 @@
     </row>
     <row r="5660" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5660" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5661" spans="1:1" x14ac:dyDescent="0.3">
@@ -31372,12 +31377,12 @@
     </row>
     <row r="5662" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5662" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="5663" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5663" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="5664" spans="1:1" x14ac:dyDescent="0.3">
@@ -31397,7 +31402,7 @@
     </row>
     <row r="5668" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5668" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="5669" spans="1:1" x14ac:dyDescent="0.3">
@@ -31407,7 +31412,7 @@
     </row>
     <row r="5670" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5670" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5671" spans="1:1" x14ac:dyDescent="0.3">
@@ -31417,12 +31422,12 @@
     </row>
     <row r="5672" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5672" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="5673" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5673" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="5674" spans="1:1" x14ac:dyDescent="0.3">
@@ -31442,7 +31447,7 @@
     </row>
     <row r="5678" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5678" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="5679" spans="1:1" x14ac:dyDescent="0.3">
@@ -31452,7 +31457,7 @@
     </row>
     <row r="5680" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5680" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5681" spans="1:1" x14ac:dyDescent="0.3">
@@ -31462,12 +31467,12 @@
     </row>
     <row r="5682" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5682" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="5683" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5683" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="5684" spans="1:1" x14ac:dyDescent="0.3">
@@ -31487,7 +31492,7 @@
     </row>
     <row r="5688" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5688" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="5689" spans="1:1" x14ac:dyDescent="0.3">
@@ -31497,7 +31502,7 @@
     </row>
     <row r="5690" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5690" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5691" spans="1:1" x14ac:dyDescent="0.3">
@@ -31507,12 +31512,12 @@
     </row>
     <row r="5692" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5692" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="5693" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5693" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="5694" spans="1:1" x14ac:dyDescent="0.3">
@@ -31532,7 +31537,7 @@
     </row>
     <row r="5698" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5698" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="5699" spans="1:1" x14ac:dyDescent="0.3">
@@ -31542,7 +31547,7 @@
     </row>
     <row r="5700" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5700" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5701" spans="1:1" x14ac:dyDescent="0.3">
@@ -31552,12 +31557,12 @@
     </row>
     <row r="5702" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5702" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="5703" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5703" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="5704" spans="1:1" x14ac:dyDescent="0.3">
@@ -31577,7 +31582,7 @@
     </row>
     <row r="5708" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5708" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="5709" spans="1:1" x14ac:dyDescent="0.3">
@@ -31587,7 +31592,7 @@
     </row>
     <row r="5710" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5710" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5711" spans="1:1" x14ac:dyDescent="0.3">
@@ -31597,12 +31602,12 @@
     </row>
     <row r="5712" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5712" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="5713" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5713" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="5714" spans="1:1" x14ac:dyDescent="0.3">
@@ -31622,7 +31627,7 @@
     </row>
     <row r="5718" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5718" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="5719" spans="1:1" x14ac:dyDescent="0.3">
@@ -31632,7 +31637,7 @@
     </row>
     <row r="5720" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5720" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5721" spans="1:1" x14ac:dyDescent="0.3">
@@ -31642,12 +31647,12 @@
     </row>
     <row r="5722" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5722" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="5723" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5723" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="5724" spans="1:1" x14ac:dyDescent="0.3">
@@ -31667,7 +31672,7 @@
     </row>
     <row r="5728" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5728" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="5729" spans="1:1" x14ac:dyDescent="0.3">
@@ -31677,7 +31682,7 @@
     </row>
     <row r="5730" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5730" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5731" spans="1:1" x14ac:dyDescent="0.3">
@@ -31687,12 +31692,12 @@
     </row>
     <row r="5732" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5732" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="5733" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5733" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="5734" spans="1:1" x14ac:dyDescent="0.3">
@@ -31712,7 +31717,7 @@
     </row>
     <row r="5738" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5738" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="5739" spans="1:1" x14ac:dyDescent="0.3">
@@ -31722,7 +31727,7 @@
     </row>
     <row r="5740" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5740" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5741" spans="1:1" x14ac:dyDescent="0.3">
@@ -31732,12 +31737,12 @@
     </row>
     <row r="5742" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5742" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="5743" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5743" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="5744" spans="1:1" x14ac:dyDescent="0.3">
@@ -31757,7 +31762,7 @@
     </row>
     <row r="5748" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5748" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="5749" spans="1:1" x14ac:dyDescent="0.3">
@@ -31767,7 +31772,7 @@
     </row>
     <row r="5750" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5750" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5751" spans="1:1" x14ac:dyDescent="0.3">
@@ -31777,12 +31782,12 @@
     </row>
     <row r="5752" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5752" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="5753" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5753" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="5754" spans="1:1" x14ac:dyDescent="0.3">
@@ -31802,7 +31807,7 @@
     </row>
     <row r="5758" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5758" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="5759" spans="1:1" x14ac:dyDescent="0.3">
@@ -31812,7 +31817,7 @@
     </row>
     <row r="5760" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5760" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5761" spans="1:1" x14ac:dyDescent="0.3">
@@ -31822,12 +31827,12 @@
     </row>
     <row r="5762" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5762" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="5763" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5763" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="5764" spans="1:1" x14ac:dyDescent="0.3">
@@ -31847,7 +31852,7 @@
     </row>
     <row r="5768" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5768" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="5769" spans="1:1" x14ac:dyDescent="0.3">
@@ -31857,7 +31862,7 @@
     </row>
     <row r="5770" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5770" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5771" spans="1:1" x14ac:dyDescent="0.3">
@@ -31867,12 +31872,12 @@
     </row>
     <row r="5772" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5772" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="5773" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5773" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="5774" spans="1:1" x14ac:dyDescent="0.3">
@@ -31892,7 +31897,7 @@
     </row>
     <row r="5778" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5778" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="5779" spans="1:1" x14ac:dyDescent="0.3">
@@ -31902,7 +31907,7 @@
     </row>
     <row r="5780" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5780" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5781" spans="1:1" x14ac:dyDescent="0.3">
@@ -31912,12 +31917,12 @@
     </row>
     <row r="5782" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5782" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="5783" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5783" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="5784" spans="1:1" x14ac:dyDescent="0.3">
@@ -31937,7 +31942,7 @@
     </row>
     <row r="5788" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5788" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="5789" spans="1:1" x14ac:dyDescent="0.3">
@@ -31947,7 +31952,7 @@
     </row>
     <row r="5790" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5790" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5791" spans="1:1" x14ac:dyDescent="0.3">
@@ -31957,12 +31962,12 @@
     </row>
     <row r="5792" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5792" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="5793" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5793" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="5794" spans="1:1" x14ac:dyDescent="0.3">
@@ -31982,7 +31987,7 @@
     </row>
     <row r="5798" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5798" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="5799" spans="1:1" x14ac:dyDescent="0.3">
@@ -31992,7 +31997,7 @@
     </row>
     <row r="5800" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5800" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5801" spans="1:1" x14ac:dyDescent="0.3">
@@ -32002,12 +32007,12 @@
     </row>
     <row r="5802" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5802" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="5803" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5803" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="5804" spans="1:1" x14ac:dyDescent="0.3">
@@ -32027,7 +32032,7 @@
     </row>
     <row r="5808" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5808" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="5809" spans="1:1" x14ac:dyDescent="0.3">
@@ -32037,7 +32042,7 @@
     </row>
     <row r="5810" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5810" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5811" spans="1:1" x14ac:dyDescent="0.3">
@@ -32047,12 +32052,12 @@
     </row>
     <row r="5812" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5812" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="5813" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5813" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="5814" spans="1:1" x14ac:dyDescent="0.3">
@@ -32072,7 +32077,7 @@
     </row>
     <row r="5818" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5818" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="5819" spans="1:1" x14ac:dyDescent="0.3">
@@ -32082,7 +32087,7 @@
     </row>
     <row r="5820" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5820" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5821" spans="1:1" x14ac:dyDescent="0.3">
@@ -32092,12 +32097,12 @@
     </row>
     <row r="5822" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5822" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="5823" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5823" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="5824" spans="1:1" x14ac:dyDescent="0.3">
@@ -32117,7 +32122,7 @@
     </row>
     <row r="5828" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5828" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="5829" spans="1:1" x14ac:dyDescent="0.3">
@@ -32127,7 +32132,7 @@
     </row>
     <row r="5830" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5830" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5831" spans="1:1" x14ac:dyDescent="0.3">
@@ -32137,12 +32142,12 @@
     </row>
     <row r="5832" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5832" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="5833" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5833" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="5834" spans="1:1" x14ac:dyDescent="0.3">
@@ -32162,7 +32167,7 @@
     </row>
     <row r="5838" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5838" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="5839" spans="1:1" x14ac:dyDescent="0.3">
@@ -32172,7 +32177,7 @@
     </row>
     <row r="5840" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5840" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5841" spans="1:1" x14ac:dyDescent="0.3">
@@ -32182,12 +32187,12 @@
     </row>
     <row r="5842" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5842" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="5843" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5843" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="5844" spans="1:1" x14ac:dyDescent="0.3">
@@ -32207,7 +32212,7 @@
     </row>
     <row r="5848" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5848" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="5849" spans="1:1" x14ac:dyDescent="0.3">
@@ -32217,7 +32222,7 @@
     </row>
     <row r="5850" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5850" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5851" spans="1:1" x14ac:dyDescent="0.3">
@@ -32227,12 +32232,12 @@
     </row>
     <row r="5852" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5852" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="5853" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5853" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="5854" spans="1:1" x14ac:dyDescent="0.3">
@@ -32252,7 +32257,7 @@
     </row>
     <row r="5858" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5858" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="5859" spans="1:1" x14ac:dyDescent="0.3">
@@ -32262,7 +32267,7 @@
     </row>
     <row r="5860" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5860" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5861" spans="1:1" x14ac:dyDescent="0.3">
@@ -32272,12 +32277,12 @@
     </row>
     <row r="5862" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5862" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="5863" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5863" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="5864" spans="1:1" x14ac:dyDescent="0.3">
@@ -32297,7 +32302,7 @@
     </row>
     <row r="5868" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5868" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="5869" spans="1:1" x14ac:dyDescent="0.3">
@@ -32307,7 +32312,7 @@
     </row>
     <row r="5870" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5870" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5871" spans="1:1" x14ac:dyDescent="0.3">
@@ -32317,12 +32322,12 @@
     </row>
     <row r="5872" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5872" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="5873" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5873" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="5874" spans="1:1" x14ac:dyDescent="0.3">
@@ -32342,7 +32347,7 @@
     </row>
     <row r="5878" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5878" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="5879" spans="1:1" x14ac:dyDescent="0.3">
@@ -32352,7 +32357,7 @@
     </row>
     <row r="5880" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5880" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5881" spans="1:1" x14ac:dyDescent="0.3">
@@ -32362,12 +32367,12 @@
     </row>
     <row r="5882" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5882" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="5883" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5883" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="5884" spans="1:1" x14ac:dyDescent="0.3">
@@ -32387,7 +32392,7 @@
     </row>
     <row r="5888" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5888" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="5889" spans="1:1" x14ac:dyDescent="0.3">
@@ -32397,7 +32402,7 @@
     </row>
     <row r="5890" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5890" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5891" spans="1:1" x14ac:dyDescent="0.3">
@@ -32407,12 +32412,12 @@
     </row>
     <row r="5892" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5892" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="5893" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5893" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="5894" spans="1:1" x14ac:dyDescent="0.3">
@@ -32432,7 +32437,7 @@
     </row>
     <row r="5898" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5898" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="5899" spans="1:1" x14ac:dyDescent="0.3">
@@ -32442,7 +32447,7 @@
     </row>
     <row r="5900" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5900" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5901" spans="1:1" x14ac:dyDescent="0.3">
@@ -32452,12 +32457,12 @@
     </row>
     <row r="5902" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5902" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="5903" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5903" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="5904" spans="1:1" x14ac:dyDescent="0.3">
@@ -32477,7 +32482,7 @@
     </row>
     <row r="5908" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5908" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="5909" spans="1:1" x14ac:dyDescent="0.3">
@@ -32487,7 +32492,7 @@
     </row>
     <row r="5910" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5910" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5911" spans="1:1" x14ac:dyDescent="0.3">
@@ -32497,12 +32502,12 @@
     </row>
     <row r="5912" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5912" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="5913" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5913" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="5914" spans="1:1" x14ac:dyDescent="0.3">
@@ -32522,7 +32527,7 @@
     </row>
     <row r="5918" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5918" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="5919" spans="1:1" x14ac:dyDescent="0.3">
@@ -32532,7 +32537,7 @@
     </row>
     <row r="5920" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5920" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5921" spans="1:1" x14ac:dyDescent="0.3">
@@ -32542,12 +32547,12 @@
     </row>
     <row r="5922" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5922" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="5923" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5923" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="5924" spans="1:1" x14ac:dyDescent="0.3">
@@ -32567,7 +32572,7 @@
     </row>
     <row r="5928" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5928" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="5929" spans="1:1" x14ac:dyDescent="0.3">
@@ -32577,7 +32582,7 @@
     </row>
     <row r="5930" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5930" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5931" spans="1:1" x14ac:dyDescent="0.3">
@@ -32587,12 +32592,12 @@
     </row>
     <row r="5932" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5932" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="5933" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5933" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="5934" spans="1:1" x14ac:dyDescent="0.3">
@@ -32612,7 +32617,7 @@
     </row>
     <row r="5938" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5938" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="5939" spans="1:1" x14ac:dyDescent="0.3">
@@ -32622,7 +32627,7 @@
     </row>
     <row r="5940" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5940" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5941" spans="1:1" x14ac:dyDescent="0.3">
@@ -32632,12 +32637,12 @@
     </row>
     <row r="5942" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5942" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="5943" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5943" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="5944" spans="1:1" x14ac:dyDescent="0.3">
@@ -32657,7 +32662,7 @@
     </row>
     <row r="5948" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5948" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5949" spans="1:1" x14ac:dyDescent="0.3">
@@ -32667,7 +32672,7 @@
     </row>
     <row r="5950" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5950" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5951" spans="1:1" x14ac:dyDescent="0.3">
@@ -32677,12 +32682,12 @@
     </row>
     <row r="5952" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5952" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="5953" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5953" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="5954" spans="1:1" x14ac:dyDescent="0.3">
@@ -32702,7 +32707,7 @@
     </row>
     <row r="5958" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5958" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="5959" spans="1:1" x14ac:dyDescent="0.3">
@@ -32712,7 +32717,7 @@
     </row>
     <row r="5960" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5960" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5961" spans="1:1" x14ac:dyDescent="0.3">
@@ -32722,12 +32727,12 @@
     </row>
     <row r="5962" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5962" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="5963" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5963" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="5964" spans="1:1" x14ac:dyDescent="0.3">
@@ -32747,7 +32752,7 @@
     </row>
     <row r="5968" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5968" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="5969" spans="1:1" x14ac:dyDescent="0.3">
@@ -32757,7 +32762,7 @@
     </row>
     <row r="5970" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5970" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5971" spans="1:1" x14ac:dyDescent="0.3">
@@ -32767,12 +32772,12 @@
     </row>
     <row r="5972" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5972" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="5973" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5973" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="5974" spans="1:1" x14ac:dyDescent="0.3">
@@ -32792,7 +32797,7 @@
     </row>
     <row r="5978" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5978" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="5979" spans="1:1" x14ac:dyDescent="0.3">
@@ -32802,7 +32807,7 @@
     </row>
     <row r="5980" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5980" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5981" spans="1:1" x14ac:dyDescent="0.3">
@@ -32812,12 +32817,12 @@
     </row>
     <row r="5982" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5982" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="5983" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5983" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="5984" spans="1:1" x14ac:dyDescent="0.3">
@@ -32837,7 +32842,7 @@
     </row>
     <row r="5988" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5988" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="5989" spans="1:1" x14ac:dyDescent="0.3">
@@ -32847,7 +32852,7 @@
     </row>
     <row r="5990" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5990" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5991" spans="1:1" x14ac:dyDescent="0.3">
@@ -32857,12 +32862,12 @@
     </row>
     <row r="5992" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5992" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="5993" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5993" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="5994" spans="1:1" x14ac:dyDescent="0.3">
@@ -32882,7 +32887,7 @@
     </row>
     <row r="5998" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5998" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="5999" spans="1:1" x14ac:dyDescent="0.3">
@@ -32892,7 +32897,7 @@
     </row>
     <row r="6000" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6000" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="6001" spans="1:1" x14ac:dyDescent="0.3">
@@ -32902,12 +32907,12 @@
     </row>
     <row r="6002" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6002" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="6003" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6003" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="6004" spans="1:1" x14ac:dyDescent="0.3">
@@ -32918,6 +32923,11 @@
     <row r="6005" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6005" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6007" t="s">
+        <v>1819</v>
       </c>
     </row>
   </sheetData>
